--- a/biology/Zoologie/Aellopos_titan/Aellopos_titan.xlsx
+++ b/biology/Zoologie/Aellopos_titan/Aellopos_titan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aellopos titan est une espèce d’insectes lépidoptères de la famille des Sphingidae, de la sous-famille des Macroglossinae, de la tribu des Dilophonotini et du genre Aellopos, c'est l'espèce type pour le genre.
 </t>
@@ -513,18 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Imago
-L'envergure varie de 55 à 65 mm. Le corps est brun foncé avec une large bande blanche sur l'abdomen. Les ailes sont brun foncé et la partie supérieure de la partie antérieure de la cellule présente une tache noire au bout de la cellule et deux bandes de taches blanches translucides. Le dessus des ailes postérieures présente des taches pâles le long de la côte et de la marge interne.
+          <t>L'Imago</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'envergure varie de 55 à 65 mm. Le corps est brun foncé avec une large bande blanche sur l'abdomen. Les ailes sont brun foncé et la partie supérieure de la partie antérieure de la cellule présente une tache noire au bout de la cellule et deux bandes de taches blanches translucides. Le dessus des ailes postérieures présente des taches pâles le long de la côte et de la marge interne.
 			Avers du mâle (coll.MHNT)
 			Revers du mâle (coll.MHNT)
 			Avers de la femelle (coll.MHNT)
 			Revers de la femelle (coll.MHNT)
-Les œufs
-Les œufs sont sphériques et verdâtres.
-La chenille
-Il existe au moins deux formes de couleur, une forme verte et une forme brun rougeâtre.
-La nymphe
-La nymphose a lieu dans des cocons en vrac dans des chambres souterraines peu profondes. Les nymphes sont sombres, lisses et brillantes.
 </t>
         </is>
       </c>
@@ -550,17 +561,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au cours de l'accouplement, les femelles attirent les mâles par une phéromone libérée par une glande située dans l'abdomen. Les adultes des deux sexes sont attirés par la lumière, mais surtout les mâles. Il y a plusieurs générations par an.
-Période de vol
-L'espèce est pluriannuelle au Costa Rica, au Mexique et dans le sud du Texas. Les spécimens adultes peuvent être capturés pendant tous les mois de l'année.
-Alimentation
-Les adultes se nourrissent du nectar des fleurs.
-Les chenilles se nourrissent de Casasia clusiifolia, de Cephalanthus occidentalis, de Randia mitis, de Randia monantha, de Randia aculeata, d'Albizzia adinocephala et de Randia grandifolia.
+          <t>Les œufs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs sont sphériques et verdâtres.
 </t>
         </is>
       </c>
@@ -586,10 +598,194 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La chenille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe au moins deux formes de couleur, une forme verte et une forme brun rougeâtre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aellopos_titan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_titan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La nymphe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nymphose a lieu dans des cocons en vrac dans des chambres souterraines peu profondes. Les nymphes sont sombres, lisses et brillantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aellopos_titan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_titan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de l'accouplement, les femelles attirent les mâles par une phéromone libérée par une glande située dans l'abdomen. Les adultes des deux sexes sont attirés par la lumière, mais surtout les mâles. Il y a plusieurs générations par an.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aellopos_titan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_titan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est pluriannuelle au Costa Rica, au Mexique et dans le sud du Texas. Les spécimens adultes peuvent être capturés pendant tous les mois de l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aellopos_titan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_titan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes se nourrissent du nectar des fleurs.
+Les chenilles se nourrissent de Casasia clusiifolia, de Cephalanthus occidentalis, de Randia mitis, de Randia monantha, de Randia aculeata, d'Albizzia adinocephala et de Randia grandifolia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aellopos_titan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_titan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Distribution
 L'espèce se rencontre aux États-Unis, en Amérique centrale et en Amérique du Sud (Argentine et Uruguay).
@@ -598,39 +794,110 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Aellopos_titan</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aellopos_titan</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aellopos_titan</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_titan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L’espèce Aellopos titan a été décrite par l'entomologiste hollandais Pieter Cramer en 1777, sous le nom initial de Sphinx titan[1]. La localité type est le Suriname.
-Synonymie
-Sphinx titan Cramer, 1777 protonyme
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’espèce Aellopos titan a été décrite par l'entomologiste hollandais Pieter Cramer en 1777, sous le nom initial de Sphinx titan. La localité type est le Suriname.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Aellopos_titan</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_titan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sphinx titan Cramer, 1777 protonyme
 Sesia titan aguacana Gehlen, 1944
-Sesia titan cubana Clark, 1936
-Liste des sous-espèces
-Aellopos titan titan
+Sesia titan cubana Clark, 1936</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Aellopos_titan</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_titan</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Aellopos titan titan
 Aellopos titan cubana (Clark, 1936) (Cuba)</t>
         </is>
       </c>
